--- a/vacc_portal/data/office_data1.xlsx
+++ b/vacc_portal/data/office_data1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kedar\Desktop\KJSCE academics\sem 3\OOPS\IA 2 trial\vacc_portal\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>EmpID</t>
   </si>
@@ -247,12 +247,25 @@
   </si>
   <si>
     <t>05/12/2022</t>
+  </si>
+  <si>
+    <t>Sample emp</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>18/08/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
@@ -573,13 +586,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.77734375"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875"/>
+    <col min="4" max="4" customWidth="true" width="11.109375"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375"/>
+    <col min="6" max="6" customWidth="true" width="14.21875"/>
+    <col min="7" max="7" customWidth="true" width="14.33203125"/>
+    <col min="8" max="8" customWidth="true" width="16.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -778,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,6 +1217,32 @@
       </c>
       <c r="H24" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H25" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/vacc_portal/data/office_data1.xlsx
+++ b/vacc_portal/data/office_data1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>EmpID</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>18/08/2024</t>
+  </si>
+  <si>
+    <t>Utkarsh</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
@@ -739,16 +742,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1242,6 +1245,32 @@
         <v>27</v>
       </c>
       <c r="H25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H26" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
